--- a/test-file.xlsx
+++ b/test-file.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF0C494-B4C7-43FF-A3E3-734796DBC81F}" xr6:coauthVersionLast="15" xr6:coauthVersionMax="15" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Adressage" sheetId="1" r:id="rId1"/>
     <sheet name="Acl" sheetId="2" r:id="rId2"/>
-    <sheet name="Vlans" sheetId="4" r:id="rId3"/>
-    <sheet name="Adressage abandonnés" sheetId="3" r:id="rId4"/>
+    <sheet name="Vlans" sheetId="3" r:id="rId3"/>
+    <sheet name="Adressage abandonnés" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
   <si>
     <t>Appliance</t>
   </si>
@@ -44,7 +43,7 @@
     <t>MainRouterBack</t>
   </si>
   <si>
-    <t>s0/0</t>
+    <t>s0/3/0</t>
   </si>
   <si>
     <t>Internet</t>
@@ -932,13 +931,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,26 +958,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -973,58 +1315,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60 % - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40 % - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="Virgule" xfId="3" builtinId="3"/>
+    <cellStyle name="CExplanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="20 % - Accent6" xfId="5" builtinId="50"/>
+    <cellStyle name="Sortie" xfId="6" builtinId="21"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="60 % - Accent5" xfId="8" builtinId="48"/>
+    <cellStyle name="40 % - Accent5" xfId="9" builtinId="47"/>
+    <cellStyle name="60 % - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="20 % - Accent3" xfId="12" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="13" builtinId="37"/>
+    <cellStyle name="20 % - Accent2" xfId="14" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
+    <cellStyle name="60 % - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="40 % - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="Neutre" xfId="18" builtinId="28"/>
+    <cellStyle name="Insatisfaisant" xfId="19" builtinId="27"/>
+    <cellStyle name="Satisfaisant" xfId="20" builtinId="26"/>
+    <cellStyle name="20 % - Accent4" xfId="21" builtinId="42"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Note" xfId="23" builtinId="10"/>
+    <cellStyle name="Cellule liée" xfId="24" builtinId="24"/>
+    <cellStyle name="Calcul" xfId="25" builtinId="22"/>
+    <cellStyle name="40 % - Accent3" xfId="26" builtinId="39"/>
+    <cellStyle name="Vérification de cellule" xfId="27" builtinId="23"/>
+    <cellStyle name="Milliers [0]" xfId="28" builtinId="6"/>
+    <cellStyle name="60 % - Accent2" xfId="29" builtinId="36"/>
+    <cellStyle name="Titre" xfId="30" builtinId="15"/>
+    <cellStyle name="Entrée" xfId="31" builtinId="20"/>
+    <cellStyle name="Titre 3" xfId="32" builtinId="18"/>
+    <cellStyle name="Titre 1" xfId="33" builtinId="16"/>
+    <cellStyle name="Accent1" xfId="34" builtinId="29"/>
+    <cellStyle name="40 % - Accent4" xfId="35" builtinId="43"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9"/>
+    <cellStyle name="20 % - Accent5" xfId="37" builtinId="46"/>
+    <cellStyle name="Titre 4" xfId="38" builtinId="19"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8"/>
+    <cellStyle name="40 % - Accent2" xfId="40" builtinId="35"/>
+    <cellStyle name="Avertissement" xfId="41" builtinId="11"/>
+    <cellStyle name="Titre 2" xfId="42" builtinId="17"/>
+    <cellStyle name="20 % - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="60 % - Accent3" xfId="44" builtinId="40"/>
+    <cellStyle name="Pourcentage" xfId="45" builtinId="5"/>
+    <cellStyle name="Monétaire [0]" xfId="46" builtinId="7"/>
+    <cellStyle name="Monétaire" xfId="47" builtinId="4"/>
+    <cellStyle name="Accent5" xfId="48" builtinId="45"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1033,10 +1650,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="444444"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F9F9F9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1314,320 +1931,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G209" sqref="G209"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.14" style="7"/>
+    <col min="4" max="4" width="13.7133333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.8533333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="33.7133333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.4266666666667" customWidth="1"/>
+    <col min="8" max="8" width="29.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>130</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>60</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>80</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>90</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>100</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>110</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>120</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>140</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>150</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>160</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>130</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -1636,252 +2243,241 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
       <c r="F23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>130</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>20</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>30</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>50</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>60</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>70</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>80</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="7">
         <v>90</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <v>100</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <v>110</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <v>120</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="7">
         <v>140</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="7">
         <v>150</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="7">
         <v>160</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
@@ -1890,13 +2486,13 @@
       <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="7">
         <v>10</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
@@ -1906,220 +2502,215 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="7">
         <v>20</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="7">
         <v>30</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="7">
         <v>40</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="7">
         <v>50</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="7">
         <v>60</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="7">
         <v>70</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="7">
         <v>80</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="7">
         <v>90</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="7">
         <v>100</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="7">
         <v>110</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="7">
         <v>120</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="7">
         <v>130</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="7">
         <v>140</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="7">
         <v>150</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="7">
         <v>160</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
@@ -2128,64 +2719,52 @@
       <c r="B58" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="7">
         <v>130</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="7">
         <v>50</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="2:7">
       <c r="B60" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="2:7">
       <c r="B61" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
@@ -2194,171 +2773,147 @@
       <c r="B63" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="7">
         <v>130</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
+    <row r="64" ht="15" customHeight="1" spans="2:6">
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="7">
         <v>50</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+    <row r="65" ht="15" customHeight="1" spans="2:7">
       <c r="B65" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="9" t="s">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11" t="s">
         <v>108</v>
       </c>
       <c r="G65" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
+    <row r="66" ht="15" customHeight="1" spans="2:7">
       <c r="B66" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="9" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>114</v>
       </c>
       <c r="B68" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="7">
         <v>130</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="7">
         <v>110</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="7">
         <v>120</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="2:7">
       <c r="B71" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="2:7">
       <c r="B72" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G72" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>120</v>
       </c>
       <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="7">
         <v>130</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="2:7">
       <c r="B75" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
       <c r="F75" t="s">
         <v>122</v>
       </c>
@@ -2366,13 +2921,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="2:7">
       <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
       <c r="F76" t="s">
         <v>123</v>
       </c>
@@ -2380,13 +2932,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="2:7">
       <c r="B77" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
       <c r="F77" t="s">
         <v>125</v>
       </c>
@@ -2394,13 +2943,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="2:8">
       <c r="B78" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
       <c r="F78" t="s">
         <v>127</v>
       </c>
@@ -2411,13 +2957,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="2:8">
       <c r="B79" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
       <c r="F79" t="s">
         <v>130</v>
       </c>
@@ -2428,38 +2971,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="7">
         <v>130</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G81" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="2:7">
       <c r="B82" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
       <c r="F82" t="s">
         <v>122</v>
       </c>
@@ -2467,13 +3002,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="2:7">
       <c r="B83" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
       <c r="F83" t="s">
         <v>123</v>
       </c>
@@ -2481,13 +3013,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="2:7">
       <c r="B84" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
       <c r="F84" t="s">
         <v>125</v>
       </c>
@@ -2495,13 +3024,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="2:8">
       <c r="B85" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
       <c r="F85" t="s">
         <v>127</v>
       </c>
@@ -2512,13 +3038,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="2:8">
       <c r="B86" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
       <c r="F86" t="s">
         <v>130</v>
       </c>
@@ -2528,11 +3051,6 @@
       <c r="H86" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -2541,13 +3059,13 @@
       <c r="B88" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="7">
         <v>10</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
@@ -2557,225 +3075,215 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="2:5">
       <c r="B89" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="7">
         <v>20</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="2:5">
       <c r="B90" t="s">
         <v>74</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="7">
         <v>30</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="E90" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="7">
         <v>40</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="2:5">
       <c r="B92" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="7">
         <v>50</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="2:5">
       <c r="B93" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="7">
         <v>60</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="E93" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
       <c r="B94" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="7">
         <v>70</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="E94" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
       <c r="B95" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="7">
         <v>80</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="E95" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="7">
         <v>90</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="E96" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
       <c r="B97" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="7">
         <v>100</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="E97" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="7">
         <v>110</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="2:5">
       <c r="B99" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="7">
         <v>120</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="7">
         <v>130</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="2:5">
       <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="7">
         <v>140</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="2:5">
       <c r="B102" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="7">
         <v>150</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="2:5">
       <c r="B103" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="7">
         <v>160</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
@@ -2784,13 +3292,13 @@
       <c r="B106" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="7">
         <v>10</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
@@ -2800,220 +3308,215 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="2:5">
       <c r="B107" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="7">
         <v>20</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="2:5">
       <c r="B108" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="7">
         <v>30</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="E108" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
       <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="7">
         <v>40</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="2:5">
       <c r="B110" t="s">
         <v>78</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="7">
         <v>50</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="2:5">
       <c r="B111" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="7">
         <v>60</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="E111" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
       <c r="B112" t="s">
         <v>82</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="7">
         <v>70</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="E112" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
       <c r="B113" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="7">
         <v>80</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="E113" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
       <c r="B114" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="7">
         <v>90</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="E114" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
       <c r="B115" t="s">
         <v>88</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="7">
         <v>100</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="E115" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
       <c r="B116" t="s">
         <v>90</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="7">
         <v>110</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="2:5">
       <c r="B117" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="7">
         <v>120</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="2:5">
       <c r="B118" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="7">
         <v>130</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="2:5">
       <c r="B119" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="7">
         <v>140</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="2:5">
       <c r="B120" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="7">
         <v>150</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="2:5">
       <c r="B121" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="7">
         <v>160</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
@@ -3022,13 +3525,13 @@
       <c r="B123" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="7">
         <v>10</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G123" t="s">
@@ -3038,220 +3541,215 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="2:5">
       <c r="B124" t="s">
         <v>72</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="7">
         <v>20</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="2:5">
       <c r="B125" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="7">
         <v>30</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="E125" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
       <c r="B126" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="7">
         <v>40</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="2:5">
       <c r="B127" t="s">
         <v>78</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="7">
         <v>50</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="2:5">
       <c r="B128" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="7">
         <v>60</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="E128" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
       <c r="B129" t="s">
         <v>82</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="7">
         <v>70</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="E129" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" t="s">
         <v>84</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="7">
         <v>80</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="E130" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131" t="s">
         <v>86</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="7">
         <v>90</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="E131" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
       <c r="B132" t="s">
         <v>88</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="7">
         <v>100</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="E132" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
       <c r="B133" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="7">
         <v>110</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="2:5">
       <c r="B134" t="s">
         <v>92</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="7">
         <v>120</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="2:5">
       <c r="B135" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="7">
         <v>130</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="2:5">
       <c r="B136" t="s">
         <v>96</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="7">
         <v>140</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="2:5">
       <c r="B137" t="s">
         <v>98</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="7">
         <v>150</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="2:5">
       <c r="B138" t="s">
         <v>100</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="7">
         <v>160</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
@@ -3260,39 +3758,34 @@
       <c r="B140" t="s">
         <v>94</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="7">
         <v>130</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G140" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="2:6">
       <c r="B141" t="s">
         <v>105</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="7">
         <v>50</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
       <c r="F141" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="2:7">
       <c r="B142" t="s">
         <v>107</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
       <c r="F142" t="s">
         <v>186</v>
       </c>
@@ -3300,13 +3793,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="2:7">
       <c r="B143" t="s">
         <v>110</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
       <c r="F143" t="s">
         <v>187</v>
       </c>
@@ -3314,51 +3804,41 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>188</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="7">
         <v>130</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G145" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="2:6">
       <c r="B146" t="s">
         <v>105</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="7">
         <v>50</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
       <c r="F146" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="2:7">
       <c r="B147" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
       <c r="F147" t="s">
         <v>186</v>
       </c>
@@ -3366,13 +3846,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="2:7">
       <c r="B148" t="s">
         <v>110</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
       <c r="F148" t="s">
         <v>187</v>
       </c>
@@ -3380,64 +3857,52 @@
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>191</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="7">
         <v>130</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G150" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="2:6">
       <c r="B151" t="s">
         <v>193</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="7">
         <v>90</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
       <c r="F151" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="2:6">
       <c r="B152" t="s">
         <v>195</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="7">
         <v>100</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
       <c r="F152" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="2:7">
       <c r="B153" t="s">
         <v>107</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
       <c r="F153" t="s">
         <v>186</v>
       </c>
@@ -3445,13 +3910,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="2:7">
       <c r="B154" t="s">
         <v>110</v>
       </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
       <c r="F154" t="s">
         <v>187</v>
       </c>
@@ -3459,38 +3921,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>186</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="7">
         <v>130</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G156" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="2:7">
       <c r="B157" t="s">
         <v>107</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
       <c r="F157" t="s">
         <v>191</v>
       </c>
@@ -3498,13 +3952,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="2:7">
       <c r="B158" t="s">
         <v>110</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
       <c r="F158" t="s">
         <v>188</v>
       </c>
@@ -3512,13 +3963,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="2:7">
       <c r="B159" t="s">
         <v>124</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
       <c r="F159" t="s">
         <v>183</v>
       </c>
@@ -3526,13 +3974,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="2:8">
       <c r="B160" t="s">
         <v>198</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
       <c r="F160" t="s">
         <v>130</v>
       </c>
@@ -3543,13 +3988,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="2:8">
       <c r="B161" t="s">
         <v>199</v>
       </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
       <c r="F161" t="s">
         <v>127</v>
       </c>
@@ -3560,38 +4002,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-    </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>187</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="7">
         <v>130</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G163" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="2:7">
       <c r="B164" t="s">
         <v>107</v>
       </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
       <c r="F164" t="s">
         <v>191</v>
       </c>
@@ -3599,13 +4033,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="2:7">
       <c r="B165" t="s">
         <v>110</v>
       </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
       <c r="F165" t="s">
         <v>188</v>
       </c>
@@ -3613,13 +4044,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="2:7">
       <c r="B166" t="s">
         <v>124</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
       <c r="F166" t="s">
         <v>183</v>
       </c>
@@ -3627,13 +4055,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="2:8">
       <c r="B167" t="s">
         <v>198</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
       <c r="F167" t="s">
         <v>130</v>
       </c>
@@ -3644,13 +4069,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="2:8">
       <c r="B168" t="s">
         <v>199</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
       <c r="F168" t="s">
         <v>127</v>
       </c>
@@ -3661,90 +4083,74 @@
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>201</v>
       </c>
       <c r="B170" t="s">
         <v>94</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="7">
         <v>130</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G170" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="2:6">
       <c r="B171" t="s">
         <v>116</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="7">
         <v>60</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
       <c r="F171" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="2:6">
       <c r="B172" t="s">
         <v>118</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="7">
         <v>70</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
       <c r="F172" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="2:6">
       <c r="B173" t="s">
         <v>204</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="7">
         <v>80</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
       <c r="F173" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="2:6">
       <c r="B174" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="7">
         <v>50</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
       <c r="F174" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="2:7">
       <c r="B175" t="s">
         <v>107</v>
       </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
       <c r="F175" t="s">
         <v>207</v>
       </c>
@@ -3752,24 +4158,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="2:7">
       <c r="B176" t="s">
         <v>110</v>
       </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
       <c r="F176" t="s">
         <v>208</v>
       </c>
       <c r="G176" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
@@ -3778,65 +4176,56 @@
       <c r="B178" t="s">
         <v>94</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="7">
         <v>130</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G178" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="2:6">
       <c r="B179" t="s">
         <v>211</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="7">
         <v>30</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
       <c r="F179" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="2:6">
       <c r="B180" t="s">
         <v>213</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="7">
         <v>40</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
       <c r="F180" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="2:6">
       <c r="B181" t="s">
         <v>206</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="7">
         <v>50</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
       <c r="F181" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="2:7">
       <c r="B182" t="s">
         <v>107</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
       <c r="F182" t="s">
         <v>207</v>
       </c>
@@ -3844,24 +4233,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="2:7">
       <c r="B183" t="s">
         <v>110</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
       <c r="F183" t="s">
         <v>208</v>
       </c>
       <c r="G183" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
@@ -3870,52 +4251,45 @@
       <c r="B185" t="s">
         <v>94</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="7">
         <v>130</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G185" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="2:6">
       <c r="B186" t="s">
         <v>193</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="7">
         <v>10</v>
       </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
       <c r="F186" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="2:6">
       <c r="B187" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="7">
         <v>20</v>
       </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
       <c r="F187" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="2:7">
       <c r="B188" t="s">
         <v>107</v>
       </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
       <c r="F188" t="s">
         <v>207</v>
       </c>
@@ -3923,24 +4297,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="2:7">
       <c r="B189" t="s">
         <v>110</v>
       </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
       <c r="F189" t="s">
         <v>208</v>
       </c>
       <c r="G189" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
@@ -3949,26 +4315,23 @@
       <c r="B191" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="7">
         <v>130</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="2:7">
       <c r="B192" t="s">
         <v>107</v>
       </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
       <c r="F192" t="s">
         <v>215</v>
       </c>
@@ -3976,13 +4339,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="2:7">
       <c r="B193" t="s">
         <v>110</v>
       </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
       <c r="F193" t="s">
         <v>209</v>
       </c>
@@ -3990,13 +4350,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="2:7">
       <c r="B194" t="s">
         <v>124</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
       <c r="F194" t="s">
         <v>201</v>
       </c>
@@ -4004,13 +4361,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="2:8">
       <c r="B195" t="s">
         <v>126</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
       <c r="F195" t="s">
         <v>130</v>
       </c>
@@ -4021,13 +4375,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="2:8">
       <c r="B196" t="s">
         <v>129</v>
       </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
       <c r="F196" t="s">
         <v>127</v>
       </c>
@@ -4038,38 +4389,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>208</v>
       </c>
       <c r="B198" t="s">
         <v>94</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="7">
         <v>130</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G198" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="2:7">
       <c r="B199" t="s">
         <v>107</v>
       </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
       <c r="F199" t="s">
         <v>215</v>
       </c>
@@ -4077,13 +4420,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="2:7">
       <c r="B200" t="s">
         <v>110</v>
       </c>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
       <c r="F200" t="s">
         <v>209</v>
       </c>
@@ -4091,13 +4431,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="2:7">
       <c r="B201" t="s">
         <v>124</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
       <c r="F201" t="s">
         <v>201</v>
       </c>
@@ -4105,13 +4442,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="2:8">
       <c r="B202" t="s">
         <v>126</v>
       </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
       <c r="F202" t="s">
         <v>130</v>
       </c>
@@ -4122,13 +4456,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="2:8">
       <c r="B203" t="s">
         <v>129</v>
       </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
       <c r="F203" t="s">
         <v>127</v>
       </c>
@@ -4138,144 +4469,58 @@
       <c r="H203" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="3:5">
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="3:5">
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="3:5">
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="3:5">
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="3:5">
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="3:5">
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="3:5">
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="3:5">
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="3:5">
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="3:5">
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="3:5">
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="3:5">
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="3:5">
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727DC740-DA43-4F76-A792-94C3EB919A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{90E15393-046F-5A8E-BC06-6E7F03FBC3F4}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B3099F-5059-48BF-9449-22770180474B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{CCDC470D-03AA-5ACC-AFA3-4DEA18407A65}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A13" sqref="A13"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.14" customWidth="1"/>
+    <col min="2" max="2" width="8.42666666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.4266666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4283,10 +4528,10 @@
       <c r="A2" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4294,10 +4539,10 @@
       <c r="A3" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4305,10 +4550,10 @@
       <c r="A4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>30</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4316,10 +4561,10 @@
       <c r="A5" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>40</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
     </row>
@@ -4327,10 +4572,10 @@
       <c r="A6" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>50</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>175</v>
       </c>
     </row>
@@ -4338,10 +4583,10 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>60</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4349,10 +4594,10 @@
       <c r="A8" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>70</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4360,10 +4605,10 @@
       <c r="A9" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>80</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4371,10 +4616,10 @@
       <c r="A10" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>90</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4382,10 +4627,10 @@
       <c r="A11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>100</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4393,10 +4638,10 @@
       <c r="A12" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>110</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>40</v>
       </c>
     </row>
@@ -4404,10 +4649,10 @@
       <c r="A13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>120</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>25</v>
       </c>
     </row>
@@ -4415,10 +4660,10 @@
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>130</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>200</v>
       </c>
     </row>
@@ -4426,10 +4671,10 @@
       <c r="A15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>140</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>450</v>
       </c>
     </row>
@@ -4437,10 +4682,10 @@
       <c r="A16" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>150</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
     </row>
@@ -4448,747 +4693,750 @@
       <c r="A17" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>160</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68722B8D-B35E-4D58-8A47-AC3F409CFF38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{CDF6B2A9-284B-5C00-9BAC-13025810157A}">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="15.7133333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.57333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5733333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3">
         <v>130</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="12" t="s">
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="5">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>50</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="5">
         <v>60</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="12" t="s">
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="5">
         <v>70</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="5">
         <v>80</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="12" t="s">
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="5">
         <v>90</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="5">
         <v>100</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="12" t="s">
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="5">
         <v>110</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="2:5">
+      <c r="B14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="5">
         <v>120</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="5">
         <v>140</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="5">
         <v>150</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="5">
         <v>160</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <v>130</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <v>10</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="10" t="s">
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="3">
         <v>30</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="10" t="s">
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="3">
         <v>40</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="3">
         <v>50</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="3">
         <v>60</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="10" t="s">
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="3">
         <v>70</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="10" t="s">
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="3">
         <v>80</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="10" t="s">
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="3">
         <v>90</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="10" t="s">
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="3">
         <v>100</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="10" t="s">
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="3">
         <v>110</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="2:5">
+      <c r="B32" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="3">
         <v>120</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:5">
+      <c r="B33" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="3">
         <v>140</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:5">
+      <c r="B34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="3">
         <v>150</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>160</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="3">
         <v>10</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="3">
         <v>20</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="10" t="s">
+    <row r="39" spans="2:5">
+      <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="3">
         <v>30</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="10" t="s">
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="3">
         <v>40</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="3">
         <v>50</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="3">
         <v>60</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="10" t="s">
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="3">
         <v>70</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="10" t="s">
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="3">
         <v>80</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="10" t="s">
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="3">
         <v>90</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="10" t="s">
+      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="3">
         <v>100</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="10" t="s">
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="3">
         <v>110</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="10" t="s">
+    <row r="48" spans="2:5">
+      <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="3">
         <v>120</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="3">
         <v>130</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="3">
         <v>140</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="3">
         <v>150</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="3">
         <v>160</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test-file.xlsx
+++ b/test-file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
   <si>
     <t>Appliance</t>
   </si>
@@ -172,6 +172,9 @@
     <t>MainRouter</t>
   </si>
   <si>
+    <t>s0/0</t>
+  </si>
+  <si>
     <t>192.168.2.3</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
     <t>192.168.5.177</t>
   </si>
   <si>
-    <t>WestBuildingfloor2Switch</t>
+    <t>WestBuildingFloor2Switch</t>
   </si>
   <si>
     <t>192.168.2.11</t>
@@ -355,13 +358,13 @@
     <t>WestBuildingSwitch</t>
   </si>
   <si>
-    <t>WestBuildingfloor1Switch</t>
+    <t>WestBuildingFloor1Switch</t>
   </si>
   <si>
     <t>192.168.2.10</t>
   </si>
   <si>
-    <t>WestBuildingfloor0Switch</t>
+    <t>WestBuildingFloor0Switch</t>
   </si>
   <si>
     <t>192.168.2.9</t>
@@ -385,301 +388,448 @@
     <t>192.168.2.8</t>
   </si>
   <si>
-    <t>WestBuildingFloor2Switch</t>
-  </si>
-  <si>
-    <t>WestBuildingFloor1Switch</t>
-  </si>
-  <si>
     <t>g0/3</t>
   </si>
   <si>
-    <t>WestBuildingFloor0Switch</t>
+    <t>g0/4</t>
+  </si>
+  <si>
+    <t>PrivateSwitchBack</t>
+  </si>
+  <si>
+    <t>g0/5</t>
+  </si>
+  <si>
+    <t>PrivateSwitch</t>
+  </si>
+  <si>
+    <t>192.168.2.7</t>
+  </si>
+  <si>
+    <t>192.168.5.36</t>
+  </si>
+  <si>
+    <t>vtp server</t>
+  </si>
+  <si>
+    <t>192.168.3.148</t>
+  </si>
+  <si>
+    <t>192.168.4.228</t>
+  </si>
+  <si>
+    <t>192.168.4.132</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>192.168.5.4</t>
+  </si>
+  <si>
+    <t>192.168.5.68</t>
+  </si>
+  <si>
+    <t>192.168.5.100</t>
+  </si>
+  <si>
+    <t>192.168.4.196</t>
+  </si>
+  <si>
+    <t>192.168.3.132</t>
+  </si>
+  <si>
+    <t>192.168.3.156</t>
+  </si>
+  <si>
+    <t>192.168.2.6</t>
+  </si>
+  <si>
+    <t>192.168.0.4</t>
+  </si>
+  <si>
+    <t>192.168.5.164</t>
+  </si>
+  <si>
+    <t>192.168.5.180</t>
+  </si>
+  <si>
+    <t>EastBuildingSwitchBack</t>
+  </si>
+  <si>
+    <t>EastBuildingSwitch</t>
+  </si>
+  <si>
+    <t>g0/6-7</t>
+  </si>
+  <si>
+    <t>ITBuildingSwitchBack</t>
+  </si>
+  <si>
+    <t>etherchannel 4 active</t>
+  </si>
+  <si>
+    <t>g0/8-9</t>
+  </si>
+  <si>
+    <t>ITBuildingSwitch</t>
+  </si>
+  <si>
+    <t>etherchannel 5 active</t>
+  </si>
+  <si>
+    <t>g0/10</t>
+  </si>
+  <si>
+    <t>MainBuildingSwitchBack</t>
+  </si>
+  <si>
+    <t>g0/11</t>
+  </si>
+  <si>
+    <t>MainBuildingSwitch</t>
+  </si>
+  <si>
+    <t>g0/12-13</t>
+  </si>
+  <si>
+    <t>PrivateFirewallBack2</t>
+  </si>
+  <si>
+    <t>etherchannel 1 active</t>
+  </si>
+  <si>
+    <t>g0/14-15</t>
+  </si>
+  <si>
+    <t>PrivateFirewall2</t>
+  </si>
+  <si>
+    <t>etherchannel 2 active</t>
+  </si>
+  <si>
+    <t>g0/16-17</t>
+  </si>
+  <si>
+    <t>etherchannel 3 passive</t>
+  </si>
+  <si>
+    <t>192.168.5.35</t>
+  </si>
+  <si>
+    <t>192.168.3.147</t>
+  </si>
+  <si>
+    <t>192.168.4.227</t>
+  </si>
+  <si>
+    <t>192.168.4.131</t>
+  </si>
+  <si>
+    <t>192.168.3.3</t>
+  </si>
+  <si>
+    <t>192.168.5.3</t>
+  </si>
+  <si>
+    <t>192.168.5.67</t>
+  </si>
+  <si>
+    <t>192.168.5.99</t>
+  </si>
+  <si>
+    <t>192.168.4.195</t>
+  </si>
+  <si>
+    <t>192.168.5.131</t>
+  </si>
+  <si>
+    <t>192.168.3.155</t>
+  </si>
+  <si>
+    <t>192.168.2.5</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>192.168.5.163</t>
+  </si>
+  <si>
+    <t>192.168.5.179</t>
+  </si>
+  <si>
+    <t>g0/5-6</t>
+  </si>
+  <si>
+    <t>g0/7-8</t>
+  </si>
+  <si>
+    <t>g0/9</t>
+  </si>
+  <si>
+    <t>g0/11-12</t>
+  </si>
+  <si>
+    <t>PrivateFirewallBack</t>
+  </si>
+  <si>
+    <t>g0/13-14</t>
+  </si>
+  <si>
+    <t>PrivateFirewall</t>
+  </si>
+  <si>
+    <t>g0/15-16</t>
+  </si>
+  <si>
+    <t>etherchannel 3 active</t>
+  </si>
+  <si>
+    <t>PrivateSwitchPool</t>
+  </si>
+  <si>
+    <t>192.168.5.34</t>
+  </si>
+  <si>
+    <t>255.255.224</t>
+  </si>
+  <si>
+    <t>for PrivateSwitch priority 110</t>
+  </si>
+  <si>
+    <t>for PrivateSwitchBack priority 100</t>
+  </si>
+  <si>
+    <t>192.168.3.146</t>
+  </si>
+  <si>
+    <t>192.168.4.226</t>
+  </si>
+  <si>
+    <t>192.168.4.130</t>
+  </si>
+  <si>
+    <t>192.168.3.2</t>
+  </si>
+  <si>
+    <t>192.168.5.2</t>
+  </si>
+  <si>
+    <t>192.168.5.66</t>
+  </si>
+  <si>
+    <t>192.168.5.98</t>
+  </si>
+  <si>
+    <t>192.168.4.194</t>
+  </si>
+  <si>
+    <t>192.168.5.130</t>
+  </si>
+  <si>
+    <t>192.168.3.130</t>
+  </si>
+  <si>
+    <t>192.168.3.154</t>
+  </si>
+  <si>
+    <t>192.168.2.4</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>192.168.5.162</t>
+  </si>
+  <si>
+    <t>192.168.5.178</t>
+  </si>
+  <si>
+    <t>EastBuildingFloor2Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.12</t>
+  </si>
+  <si>
+    <t>Service Recherche&amp;Développement</t>
+  </si>
+  <si>
+    <t>EastBuildingFloor1Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.13</t>
+  </si>
+  <si>
+    <t>native130</t>
+  </si>
+  <si>
+    <t>EastBuildingFloor0Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.14</t>
+  </si>
+  <si>
+    <t>f0/1-8</t>
+  </si>
+  <si>
+    <t>Service Communication</t>
+  </si>
+  <si>
+    <t>f0/9-14</t>
+  </si>
+  <si>
+    <t>Service Support Client</t>
+  </si>
+  <si>
+    <t>192.168.2.15</t>
+  </si>
+  <si>
+    <t>192.168.2.16</t>
+  </si>
+  <si>
+    <t>MainBuildingFloor2Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.17</t>
+  </si>
+  <si>
+    <t>Service RH</t>
+  </si>
+  <si>
+    <t>f0/15-18</t>
+  </si>
+  <si>
+    <t>Secrétariat de direction</t>
+  </si>
+  <si>
+    <t>f0/19-30</t>
+  </si>
+  <si>
+    <t>MainBuildingFloor1Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.18</t>
+  </si>
+  <si>
+    <t>f0/1-4</t>
+  </si>
+  <si>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>f0/5-18</t>
+  </si>
+  <si>
+    <t>Service Secrétariat</t>
+  </si>
+  <si>
+    <t>MainBuildingFloor0Switch</t>
+  </si>
+  <si>
+    <t>192.168.2.19</t>
+  </si>
+  <si>
+    <t>Service Logistique</t>
+  </si>
+  <si>
+    <t>Service Informatique : Support</t>
+  </si>
+  <si>
+    <t>192.168.2.20</t>
+  </si>
+  <si>
+    <t>192.168.2.21</t>
+  </si>
+  <si>
+    <t>IntranetServersSwitch</t>
+  </si>
+  <si>
+    <t>192.168.2.22</t>
+  </si>
+  <si>
+    <t>f0/1</t>
+  </si>
+  <si>
+    <t>DNSServer</t>
+  </si>
+  <si>
+    <t>f0/2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>f0/3</t>
+  </si>
+  <si>
+    <t>DHCPServer</t>
+  </si>
+  <si>
+    <t>f0/4</t>
+  </si>
+  <si>
+    <t>TFTPRechercheServer</t>
+  </si>
+  <si>
+    <t>f0/5</t>
+  </si>
+  <si>
+    <t>TFTPInfoServer</t>
+  </si>
+  <si>
+    <t>g0/1-2</t>
+  </si>
+  <si>
+    <t>etherchannel 2 passive</t>
+  </si>
+  <si>
+    <t>g0/3-4</t>
+  </si>
+  <si>
+    <t>etherchannel 1 passive</t>
+  </si>
+  <si>
+    <t>192.168.2.23</t>
+  </si>
+  <si>
+    <t>IntranetServerSwitch</t>
+  </si>
+  <si>
+    <t>etherchannel 5 passive</t>
+  </si>
+  <si>
+    <t>etherchannel 4 passive</t>
+  </si>
+  <si>
+    <t>192.168.2.24</t>
   </si>
   <si>
     <t>g0/4-5</t>
   </si>
   <si>
-    <t>PrivateSwitchBack</t>
-  </si>
-  <si>
-    <t>etherchannel</t>
-  </si>
-  <si>
-    <t>g0/6-7</t>
-  </si>
-  <si>
-    <t>PrivateSwitch</t>
-  </si>
-  <si>
-    <t>192.168.2.7</t>
-  </si>
-  <si>
-    <t>192.168.5.36</t>
-  </si>
-  <si>
-    <t>vtp server</t>
-  </si>
-  <si>
-    <t>192.168.4.148</t>
-  </si>
-  <si>
-    <t>192.168.4.228</t>
-  </si>
-  <si>
-    <t>192.168.4.132</t>
-  </si>
-  <si>
-    <t>192.168.3.4</t>
-  </si>
-  <si>
-    <t>192.168.5.4</t>
-  </si>
-  <si>
-    <t>192.168.5.68</t>
-  </si>
-  <si>
-    <t>192.168.5.100</t>
-  </si>
-  <si>
-    <t>192.168.4.196</t>
-  </si>
-  <si>
-    <t>192.168.3.132</t>
-  </si>
-  <si>
-    <t>192.168.3.156</t>
-  </si>
-  <si>
-    <t>192.168.2.6</t>
-  </si>
-  <si>
-    <t>192.168.0.4</t>
-  </si>
-  <si>
-    <t>192.168.5.164</t>
-  </si>
-  <si>
-    <t>192.168.5.180</t>
-  </si>
-  <si>
-    <t>192.168.5.35</t>
-  </si>
-  <si>
-    <t>192.168.3.147</t>
-  </si>
-  <si>
-    <t>192.168.4.227</t>
-  </si>
-  <si>
-    <t>192.168.4.131</t>
-  </si>
-  <si>
-    <t>192.168.3.3</t>
-  </si>
-  <si>
-    <t>192.168.5.3</t>
-  </si>
-  <si>
-    <t>192.168.5.67</t>
-  </si>
-  <si>
-    <t>192.168.5.99</t>
-  </si>
-  <si>
-    <t>192.168.4.195</t>
-  </si>
-  <si>
-    <t>192.168.5.131</t>
-  </si>
-  <si>
-    <t>192.168.3.155</t>
-  </si>
-  <si>
-    <t>192.168.2.5</t>
-  </si>
-  <si>
-    <t>192.168.0.3</t>
-  </si>
-  <si>
-    <t>192.168.5.163</t>
-  </si>
-  <si>
-    <t>192.168.5.179</t>
-  </si>
-  <si>
-    <t>PrivateSwitchPool</t>
-  </si>
-  <si>
-    <t>192.168.5.34</t>
-  </si>
-  <si>
-    <t>255.255.224</t>
-  </si>
-  <si>
-    <t>for PrivateSwitch priority 110</t>
-  </si>
-  <si>
-    <t>for PrivateSwitchBack priority 100</t>
-  </si>
-  <si>
-    <t>192.168.3.146</t>
-  </si>
-  <si>
-    <t>192.168.4.226</t>
-  </si>
-  <si>
-    <t>192.168.4.130</t>
-  </si>
-  <si>
-    <t>192.168.3.2</t>
-  </si>
-  <si>
-    <t>192.168.5.2</t>
-  </si>
-  <si>
-    <t>192.168.5.66</t>
-  </si>
-  <si>
-    <t>192.168.5.98</t>
-  </si>
-  <si>
-    <t>192.168.4.194</t>
-  </si>
-  <si>
-    <t>192.168.5.130</t>
-  </si>
-  <si>
-    <t>192.168.3.130</t>
-  </si>
-  <si>
-    <t>192.168.3.154</t>
-  </si>
-  <si>
-    <t>192.168.2.4</t>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
-    <t>192.168.5.162</t>
-  </si>
-  <si>
-    <t>192.168.5.178</t>
-  </si>
-  <si>
-    <t>EastBuildingFloor2Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.12</t>
-  </si>
-  <si>
-    <t>Service Recherche&amp;Développement</t>
-  </si>
-  <si>
-    <t>EastBuildingSwitch</t>
-  </si>
-  <si>
-    <t>EastBuildingSwitchBack</t>
-  </si>
-  <si>
-    <t>EastBuildingFloor1Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.13</t>
-  </si>
-  <si>
-    <t>native130</t>
-  </si>
-  <si>
-    <t>EastBuildingFloor0Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.14</t>
-  </si>
-  <si>
-    <t>f0/1-8</t>
-  </si>
-  <si>
-    <t>Service Communication</t>
-  </si>
-  <si>
-    <t>f0/9-14</t>
-  </si>
-  <si>
-    <t>Service Support Client</t>
-  </si>
-  <si>
-    <t>192.168.2.15</t>
-  </si>
-  <si>
-    <t>g/1-2</t>
-  </si>
-  <si>
-    <t>g/3-4</t>
-  </si>
-  <si>
-    <t>192.168.2.16</t>
-  </si>
-  <si>
-    <t>MainBuildingFloor2Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.17</t>
-  </si>
-  <si>
-    <t>Service RH</t>
-  </si>
-  <si>
-    <t>f0/15-18</t>
-  </si>
-  <si>
-    <t>Secrétariat de direction</t>
-  </si>
-  <si>
-    <t>f0/19-30</t>
-  </si>
-  <si>
-    <t>MainBuildingSwitch</t>
-  </si>
-  <si>
-    <t>MainBuildingSwitchBack</t>
-  </si>
-  <si>
-    <t>MainBuildingFloor1Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.18</t>
-  </si>
-  <si>
-    <t>f0/1-4</t>
-  </si>
-  <si>
-    <t>Comptabilité</t>
-  </si>
-  <si>
-    <t>f0/5-18</t>
-  </si>
-  <si>
-    <t>Service Secrétariat</t>
-  </si>
-  <si>
-    <t>MainBuildingFloor0Switch</t>
-  </si>
-  <si>
-    <t>192.168.2.19</t>
-  </si>
-  <si>
-    <t>Service Logistique</t>
-  </si>
-  <si>
-    <t>Service Informatique : Support</t>
-  </si>
-  <si>
-    <t>192.168.2.20</t>
-  </si>
-  <si>
-    <t>192.168.2.21</t>
+    <t>PublicSwitchBack</t>
+  </si>
+  <si>
+    <t>192.168.2.25</t>
+  </si>
+  <si>
+    <t>g0/7</t>
+  </si>
+  <si>
+    <t>DemilitarizedSwitch</t>
+  </si>
+  <si>
+    <t>192.168.2.26</t>
+  </si>
+  <si>
+    <t>192.168.2.27</t>
+  </si>
+  <si>
+    <t>f0/3-4</t>
+  </si>
+  <si>
+    <t>MailServer</t>
   </si>
   <si>
     <t>Nom</t>
@@ -734,9 +884,6 @@
   </si>
   <si>
     <t>Intranet</t>
-  </si>
-  <si>
-    <t>PublicSwitchBack</t>
   </si>
   <si>
     <t>g0/1.10</t>
@@ -933,10 +1080,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -962,6 +1109,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -978,30 +1140,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,17 +1162,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,11 +1184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,7 +1200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,16 +1214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,15 +1237,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1287,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,163 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,6 +1460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1327,39 +1483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,8 +1516,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,148 +1563,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,12 +2080,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2241,7 +2388,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -2263,7 +2410,7 @@
         <v>130</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -2277,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
@@ -2291,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
@@ -2305,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -2319,7 +2466,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>25</v>
@@ -2333,7 +2480,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>14</v>
@@ -2347,7 +2494,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -2361,7 +2508,7 @@
         <v>70</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
@@ -2375,7 +2522,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
@@ -2389,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
@@ -2403,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -2417,7 +2564,7 @@
         <v>110</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2431,7 +2578,7 @@
         <v>120</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>20</v>
@@ -2445,7 +2592,7 @@
         <v>140</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>45</v>
@@ -2459,7 +2606,7 @@
         <v>150</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>40</v>
@@ -2473,7 +2620,7 @@
         <v>160</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -2481,36 +2628,36 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7">
         <v>10</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="7">
         <v>20</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>20</v>
@@ -2518,13 +2665,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="7">
         <v>30</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>17</v>
@@ -2532,13 +2679,13 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="7">
         <v>40</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>25</v>
@@ -2546,13 +2693,13 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="7">
         <v>50</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>14</v>
@@ -2560,13 +2707,13 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="7">
         <v>60</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
@@ -2574,13 +2721,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="7">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -2588,13 +2735,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="7">
         <v>80</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>17</v>
@@ -2602,13 +2749,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="7">
         <v>90</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
@@ -2616,13 +2763,13 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="7">
         <v>100</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
@@ -2630,13 +2777,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="7">
         <v>110</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>40</v>
@@ -2644,13 +2791,13 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7">
         <v>120</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>20</v>
@@ -2658,13 +2805,13 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="7">
         <v>130</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>14</v>
@@ -2672,13 +2819,13 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="7">
         <v>140</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>45</v>
@@ -2686,13 +2833,13 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" s="7">
         <v>150</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>40</v>
@@ -2700,13 +2847,13 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="7">
         <v>160</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>40</v>
@@ -2714,376 +2861,364 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="7">
         <v>130</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="7">
         <v>50</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63" s="7">
         <v>130</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="2:6">
       <c r="B64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7">
         <v>50</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="2:7">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:7">
       <c r="B66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7">
         <v>130</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="7">
         <v>110</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="7">
         <v>120</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="7">
         <v>130</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
         <v>124</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>125</v>
       </c>
-      <c r="G77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
         <v>126</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>127</v>
       </c>
-      <c r="G78" t="s">
-        <v>128</v>
-      </c>
-      <c r="H78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>130</v>
-      </c>
       <c r="G79" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="7">
         <v>130</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
         <v>124</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>125</v>
       </c>
-      <c r="G84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" t="s">
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
         <v>126</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>127</v>
       </c>
-      <c r="G85" t="s">
-        <v>128</v>
-      </c>
-      <c r="H85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" t="s">
-        <v>130</v>
-      </c>
       <c r="G86" t="s">
-        <v>128</v>
-      </c>
-      <c r="H86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="7">
         <v>10</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="7">
         <v>20</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>20</v>
@@ -3091,13 +3226,13 @@
     </row>
     <row r="90" spans="2:5">
       <c r="B90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C90" s="7">
         <v>30</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>17</v>
@@ -3105,13 +3240,13 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C91" s="7">
         <v>40</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>25</v>
@@ -3119,13 +3254,13 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C92" s="7">
         <v>50</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>14</v>
@@ -3133,13 +3268,13 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C93" s="7">
         <v>60</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>17</v>
@@ -3147,13 +3282,13 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" s="7">
         <v>70</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>17</v>
@@ -3161,13 +3296,13 @@
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C95" s="7">
         <v>80</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>17</v>
@@ -3175,13 +3310,13 @@
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C96" s="7">
         <v>90</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>17</v>
@@ -3189,7 +3324,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C97" s="7">
         <v>100</v>
@@ -3203,13 +3338,13 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C98" s="7">
         <v>110</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>40</v>
@@ -3217,13 +3352,13 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99" s="7">
         <v>120</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>20</v>
@@ -3231,13 +3366,13 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C100" s="7">
         <v>130</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>14</v>
@@ -3245,13 +3380,13 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C101" s="7">
         <v>140</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>45</v>
@@ -3259,13 +3394,13 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C102" s="7">
         <v>150</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>40</v>
@@ -3273,190 +3408,186 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="7">
         <v>160</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
+    <row r="104" spans="2:7">
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" t="s">
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" t="s">
+        <v>146</v>
+      </c>
+      <c r="G107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" t="s">
+        <v>148</v>
+      </c>
+      <c r="G108" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" t="s">
+        <v>150</v>
+      </c>
+      <c r="F109" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" t="s">
+        <v>152</v>
+      </c>
+      <c r="H109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>153</v>
+      </c>
+      <c r="F110" t="s">
+        <v>154</v>
+      </c>
+      <c r="G110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
+        <v>155</v>
+      </c>
+      <c r="F111" t="s">
+        <v>156</v>
+      </c>
+      <c r="G111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" t="s">
+        <v>162</v>
+      </c>
+      <c r="H113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" t="s">
+        <v>164</v>
+      </c>
+      <c r="H114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="7">
+        <v>10</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
         <v>130</v>
       </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="7">
-        <v>10</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
-      <c r="H106" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="7">
-        <v>20</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="7">
-        <v>30</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" s="7">
-        <v>40</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="7">
-        <v>50</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" s="7">
-        <v>60</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="7">
-        <v>70</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" s="7">
-        <v>80</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" s="7">
-        <v>90</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="7">
-        <v>100</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="7">
-        <v>110</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>40</v>
+      <c r="H116" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C117" s="7">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>20</v>
@@ -3464,106 +3595,111 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C118" s="7">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C119" s="7">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="2:5">
       <c r="B120" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C120" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C121" s="7">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>163</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="7">
+        <v>70</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
       <c r="B123" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C123" s="7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G123" t="s">
-        <v>166</v>
-      </c>
-      <c r="H123" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C124" s="7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C125" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>17</v>
@@ -3571,903 +3707,1610 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C126" s="7">
+        <v>110</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C127" s="7">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C128" s="7">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C129" s="7">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C130" s="7">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C131" s="7">
+        <v>160</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" t="s">
+        <v>109</v>
+      </c>
+      <c r="G132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F133" t="s">
+        <v>112</v>
+      </c>
+      <c r="G133" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" t="s">
+        <v>123</v>
+      </c>
+      <c r="F134" t="s">
+        <v>145</v>
+      </c>
+      <c r="G134" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="F135" t="s">
+        <v>146</v>
+      </c>
+      <c r="G135" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136" t="s">
+        <v>148</v>
+      </c>
+      <c r="G136" t="s">
+        <v>152</v>
+      </c>
+      <c r="H136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="F137" t="s">
+        <v>151</v>
+      </c>
+      <c r="G137" t="s">
+        <v>159</v>
+      </c>
+      <c r="H137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>182</v>
+      </c>
+      <c r="F138" t="s">
+        <v>154</v>
+      </c>
+      <c r="G138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="F139" t="s">
+        <v>156</v>
+      </c>
+      <c r="G139" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" t="s">
+        <v>183</v>
+      </c>
+      <c r="F140" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" t="s">
+        <v>185</v>
+      </c>
+      <c r="F141" t="s">
+        <v>186</v>
+      </c>
+      <c r="G141" t="s">
+        <v>149</v>
+      </c>
+      <c r="H141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" t="s">
+        <v>187</v>
+      </c>
+      <c r="F142" t="s">
+        <v>125</v>
+      </c>
+      <c r="G142" t="s">
+        <v>188</v>
+      </c>
+      <c r="H142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" s="7">
+        <v>10</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G144" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="7">
+        <v>20</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="7">
+        <v>30</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="7">
+        <v>40</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="7">
+        <v>50</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" s="7">
+        <v>60</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="7">
+        <v>70</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="7">
+        <v>80</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="7">
         <v>90</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="7" t="s">
+      <c r="D152" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" s="7">
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="7">
         <v>100</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E132" s="7" t="s">
+      <c r="D153" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>90</v>
-      </c>
-      <c r="C133" s="7">
-        <v>110</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E133" s="7" t="s">
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="7">
+        <v>110</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" s="7">
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="7">
         <v>120</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E134" s="7" t="s">
+      <c r="D155" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" s="7">
-        <v>130</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
-        <v>96</v>
-      </c>
-      <c r="C136" s="7">
-        <v>140</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" s="7">
-        <v>150</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" t="s">
-        <v>100</v>
-      </c>
-      <c r="C138" s="7">
-        <v>160</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>183</v>
-      </c>
-      <c r="B140" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" s="7">
-        <v>130</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" s="7">
-        <v>50</v>
-      </c>
-      <c r="F141" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142" t="s">
-        <v>107</v>
-      </c>
-      <c r="F142" t="s">
-        <v>186</v>
-      </c>
-      <c r="G142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" t="s">
-        <v>187</v>
-      </c>
-      <c r="G143" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" s="7">
-        <v>130</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" t="s">
-        <v>105</v>
-      </c>
-      <c r="C146" s="7">
-        <v>50</v>
-      </c>
-      <c r="F146" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" t="s">
-        <v>107</v>
-      </c>
-      <c r="F147" t="s">
-        <v>186</v>
-      </c>
-      <c r="G147" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" t="s">
-        <v>110</v>
-      </c>
-      <c r="F148" t="s">
-        <v>187</v>
-      </c>
-      <c r="G148" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>191</v>
-      </c>
-      <c r="B150" t="s">
-        <v>94</v>
-      </c>
-      <c r="C150" s="7">
-        <v>130</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" t="s">
-        <v>193</v>
-      </c>
-      <c r="C151" s="7">
-        <v>90</v>
-      </c>
-      <c r="F151" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152" t="s">
-        <v>195</v>
-      </c>
-      <c r="C152" s="7">
-        <v>100</v>
-      </c>
-      <c r="F152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" t="s">
-        <v>107</v>
-      </c>
-      <c r="F153" t="s">
-        <v>186</v>
-      </c>
-      <c r="G153" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154" t="s">
-        <v>110</v>
-      </c>
-      <c r="F154" t="s">
-        <v>187</v>
-      </c>
-      <c r="G154" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>186</v>
-      </c>
+    <row r="156" spans="2:5">
       <c r="B156" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C156" s="7">
         <v>130</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G156" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
+    </row>
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
-        <v>107</v>
-      </c>
-      <c r="F157" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7">
+        <v>97</v>
+      </c>
+      <c r="C157" s="7">
+        <v>140</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
       <c r="B158" t="s">
-        <v>110</v>
-      </c>
-      <c r="F158" t="s">
-        <v>188</v>
-      </c>
-      <c r="G158" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
+        <v>99</v>
+      </c>
+      <c r="C158" s="7">
+        <v>150</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
       <c r="B159" t="s">
-        <v>124</v>
-      </c>
-      <c r="F159" t="s">
-        <v>183</v>
-      </c>
-      <c r="G159" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8">
-      <c r="B160" t="s">
-        <v>198</v>
-      </c>
-      <c r="F160" t="s">
+        <v>101</v>
+      </c>
+      <c r="C159" s="7">
+        <v>160</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" t="s">
+        <v>95</v>
+      </c>
+      <c r="C161" s="7">
         <v>130</v>
       </c>
-      <c r="G160" t="s">
-        <v>128</v>
-      </c>
-      <c r="H160" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8">
-      <c r="B161" t="s">
-        <v>199</v>
-      </c>
-      <c r="F161" t="s">
-        <v>127</v>
+      <c r="D161" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>128</v>
-      </c>
-      <c r="H161" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>187</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" s="7">
+        <v>50</v>
+      </c>
+      <c r="F162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
       <c r="B163" t="s">
-        <v>94</v>
-      </c>
-      <c r="C163" s="7">
-        <v>130</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="F163" t="s">
+        <v>146</v>
       </c>
       <c r="G163" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="2:7">
       <c r="B164" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F164" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G164" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" t="s">
-        <v>110</v>
-      </c>
-      <c r="F165" t="s">
-        <v>188</v>
-      </c>
-      <c r="G165" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>212</v>
+      </c>
       <c r="B166" t="s">
-        <v>124</v>
-      </c>
-      <c r="F166" t="s">
-        <v>183</v>
+        <v>95</v>
+      </c>
+      <c r="C166" s="7">
+        <v>130</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="B167" t="s">
-        <v>198</v>
+        <v>106</v>
+      </c>
+      <c r="C167" s="7">
+        <v>50</v>
       </c>
       <c r="F167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" t="s">
+        <v>108</v>
+      </c>
+      <c r="F168" t="s">
+        <v>146</v>
+      </c>
+      <c r="G168" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" t="s">
+        <v>111</v>
+      </c>
+      <c r="F169" t="s">
+        <v>145</v>
+      </c>
+      <c r="G169" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>215</v>
+      </c>
+      <c r="B171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="7">
         <v>130</v>
       </c>
-      <c r="G167" t="s">
-        <v>128</v>
-      </c>
-      <c r="H167" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" t="s">
-        <v>199</v>
-      </c>
-      <c r="F168" t="s">
-        <v>127</v>
-      </c>
-      <c r="G168" t="s">
-        <v>128</v>
-      </c>
-      <c r="H168" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>201</v>
-      </c>
-      <c r="B170" t="s">
-        <v>94</v>
-      </c>
-      <c r="C170" s="7">
-        <v>130</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E170" s="7" t="s">
+      <c r="D171" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6">
-      <c r="B171" t="s">
-        <v>116</v>
-      </c>
-      <c r="C171" s="7">
-        <v>60</v>
-      </c>
-      <c r="F171" t="s">
-        <v>5</v>
+      <c r="G171" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="C172" s="7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F172" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C173" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
       <c r="B174" t="s">
-        <v>206</v>
-      </c>
-      <c r="C174" s="7">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F174" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="G174" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="2:7">
       <c r="B175" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F175" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="G175" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7">
-      <c r="B176" t="s">
-        <v>110</v>
-      </c>
-      <c r="F176" t="s">
-        <v>208</v>
-      </c>
-      <c r="G176" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>209</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" t="s">
+        <v>95</v>
+      </c>
+      <c r="C177" s="7">
+        <v>130</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
       <c r="B178" t="s">
-        <v>94</v>
-      </c>
-      <c r="C178" s="7">
-        <v>130</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="F178" t="s">
+        <v>215</v>
       </c>
       <c r="G178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
       <c r="B179" t="s">
-        <v>211</v>
-      </c>
-      <c r="C179" s="7">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F179" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="180" spans="2:6">
+      <c r="G179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
       <c r="B180" t="s">
-        <v>213</v>
-      </c>
-      <c r="C180" s="7">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F180" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6">
+        <v>209</v>
+      </c>
+      <c r="G180" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
       <c r="B181" t="s">
-        <v>206</v>
-      </c>
-      <c r="C181" s="7">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F181" t="s">
-        <v>185</v>
+        <v>127</v>
+      </c>
+      <c r="G181" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="182" spans="2:7">
       <c r="B182" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="G182" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7">
-      <c r="B183" t="s">
-        <v>110</v>
-      </c>
-      <c r="F183" t="s">
-        <v>208</v>
-      </c>
-      <c r="G183" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" s="7">
+        <v>130</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" t="s">
+        <v>108</v>
+      </c>
+      <c r="F185" t="s">
         <v>215</v>
       </c>
-      <c r="B185" t="s">
-        <v>94</v>
-      </c>
-      <c r="C185" s="7">
-        <v>130</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
       <c r="B186" t="s">
-        <v>193</v>
-      </c>
-      <c r="C186" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F186" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6">
+        <v>212</v>
+      </c>
+      <c r="G186" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
       <c r="B187" t="s">
-        <v>195</v>
-      </c>
-      <c r="C187" s="7">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F187" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="G187" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="G188" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" spans="2:7">
       <c r="B189" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="G189" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C191" s="7">
         <v>130</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
       <c r="B192" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="C192" s="7">
+        <v>60</v>
       </c>
       <c r="F192" t="s">
-        <v>215</v>
-      </c>
-      <c r="G192" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
       <c r="B193" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="C193" s="7">
+        <v>70</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
-      </c>
-      <c r="G193" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
       <c r="B194" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="7">
+        <v>80</v>
+      </c>
+      <c r="F194" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="7">
+        <v>50</v>
+      </c>
+      <c r="F195" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" t="s">
+        <v>108</v>
+      </c>
+      <c r="F196" t="s">
+        <v>156</v>
+      </c>
+      <c r="G196" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" t="s">
+        <v>111</v>
+      </c>
+      <c r="F197" t="s">
+        <v>154</v>
+      </c>
+      <c r="G197" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>229</v>
+      </c>
+      <c r="B199" t="s">
+        <v>95</v>
+      </c>
+      <c r="C199" s="7">
+        <v>130</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" s="7">
+        <v>30</v>
+      </c>
+      <c r="F200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" s="7">
+        <v>40</v>
+      </c>
+      <c r="F201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" t="s">
+        <v>228</v>
+      </c>
+      <c r="C202" s="7">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" t="s">
+        <v>108</v>
+      </c>
+      <c r="F203" t="s">
+        <v>156</v>
+      </c>
+      <c r="G203" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" t="s">
+        <v>111</v>
+      </c>
+      <c r="F204" t="s">
+        <v>154</v>
+      </c>
+      <c r="G204" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" t="s">
+        <v>95</v>
+      </c>
+      <c r="C206" s="7">
+        <v>130</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207" s="7">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" t="s">
+        <v>219</v>
+      </c>
+      <c r="C208" s="7">
+        <v>20</v>
+      </c>
+      <c r="F208" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" t="s">
+        <v>108</v>
+      </c>
+      <c r="F209" t="s">
+        <v>156</v>
+      </c>
+      <c r="G209" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" t="s">
+        <v>111</v>
+      </c>
+      <c r="F210" t="s">
+        <v>154</v>
+      </c>
+      <c r="G210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>156</v>
+      </c>
+      <c r="B212" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="7">
+        <v>130</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" t="s">
+        <v>108</v>
+      </c>
+      <c r="F213" t="s">
+        <v>235</v>
+      </c>
+      <c r="G213" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="F214" t="s">
+        <v>229</v>
+      </c>
+      <c r="G214" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" t="s">
+        <v>123</v>
+      </c>
+      <c r="F215" t="s">
+        <v>223</v>
+      </c>
+      <c r="G215" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" t="s">
         <v>124</v>
       </c>
-      <c r="F194" t="s">
-        <v>201</v>
-      </c>
-      <c r="G194" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8">
-      <c r="B195" t="s">
+      <c r="F216" t="s">
+        <v>127</v>
+      </c>
+      <c r="G216" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" t="s">
         <v>126</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F217" t="s">
+        <v>125</v>
+      </c>
+      <c r="G217" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219" t="s">
+        <v>95</v>
+      </c>
+      <c r="C219" s="7">
         <v>130</v>
       </c>
-      <c r="G195" t="s">
-        <v>128</v>
-      </c>
-      <c r="H195" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8">
-      <c r="B196" t="s">
-        <v>129</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="D219" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" t="s">
+        <v>108</v>
+      </c>
+      <c r="F220" t="s">
+        <v>235</v>
+      </c>
+      <c r="G220" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" t="s">
+        <v>111</v>
+      </c>
+      <c r="F221" t="s">
+        <v>229</v>
+      </c>
+      <c r="G221" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" t="s">
+        <v>123</v>
+      </c>
+      <c r="F222" t="s">
+        <v>223</v>
+      </c>
+      <c r="G222" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" t="s">
+        <v>124</v>
+      </c>
+      <c r="F223" t="s">
         <v>127</v>
       </c>
-      <c r="G196" t="s">
-        <v>128</v>
-      </c>
-      <c r="H196" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>208</v>
-      </c>
-      <c r="B198" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" s="7">
+      <c r="G223" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" t="s">
+        <v>126</v>
+      </c>
+      <c r="F224" t="s">
+        <v>125</v>
+      </c>
+      <c r="G224" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>241</v>
+      </c>
+      <c r="B226" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" s="7">
         <v>130</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E198" s="7" t="s">
+      <c r="D226" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G198" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7">
-      <c r="B199" t="s">
-        <v>107</v>
-      </c>
-      <c r="F199" t="s">
-        <v>215</v>
-      </c>
-      <c r="G199" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7">
-      <c r="B200" t="s">
-        <v>110</v>
-      </c>
-      <c r="F200" t="s">
-        <v>209</v>
-      </c>
-      <c r="G200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201" t="s">
-        <v>124</v>
-      </c>
-      <c r="F201" t="s">
-        <v>201</v>
-      </c>
-      <c r="G201" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8">
-      <c r="B202" t="s">
-        <v>126</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="G226" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" t="s">
+        <v>243</v>
+      </c>
+      <c r="C227" s="7">
+        <v>160</v>
+      </c>
+      <c r="F227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" t="s">
+        <v>245</v>
+      </c>
+      <c r="C228" s="7">
+        <v>160</v>
+      </c>
+      <c r="F228" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" t="s">
+        <v>247</v>
+      </c>
+      <c r="C229" s="7">
+        <v>160</v>
+      </c>
+      <c r="F229" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="7">
+        <v>160</v>
+      </c>
+      <c r="F230" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" t="s">
+        <v>251</v>
+      </c>
+      <c r="C231" s="7">
+        <v>160</v>
+      </c>
+      <c r="F231" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8">
+      <c r="B232" t="s">
+        <v>253</v>
+      </c>
+      <c r="F232" t="s">
+        <v>151</v>
+      </c>
+      <c r="G232" t="s">
+        <v>254</v>
+      </c>
+      <c r="H232" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8">
+      <c r="B233" t="s">
+        <v>255</v>
+      </c>
+      <c r="F233" t="s">
+        <v>148</v>
+      </c>
+      <c r="G233" t="s">
+        <v>256</v>
+      </c>
+      <c r="H233" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>148</v>
+      </c>
+      <c r="B235" t="s">
+        <v>95</v>
+      </c>
+      <c r="C235" s="7">
         <v>130</v>
       </c>
-      <c r="G202" t="s">
-        <v>128</v>
-      </c>
-      <c r="H202" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8">
-      <c r="B203" t="s">
-        <v>129</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="D235" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8">
+      <c r="B236" t="s">
+        <v>253</v>
+      </c>
+      <c r="F236" t="s">
+        <v>258</v>
+      </c>
+      <c r="G236" t="s">
+        <v>159</v>
+      </c>
+      <c r="H236" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8">
+      <c r="B237" t="s">
+        <v>255</v>
+      </c>
+      <c r="F237" t="s">
         <v>127</v>
       </c>
-      <c r="G203" t="s">
-        <v>128</v>
-      </c>
-      <c r="H203" t="s">
-        <v>109</v>
+      <c r="G237" t="s">
+        <v>259</v>
+      </c>
+      <c r="H237" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8">
+      <c r="B238" t="s">
+        <v>180</v>
+      </c>
+      <c r="F238" t="s">
+        <v>125</v>
+      </c>
+      <c r="G238" t="s">
+        <v>260</v>
+      </c>
+      <c r="H238" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>151</v>
+      </c>
+      <c r="B240" t="s">
+        <v>95</v>
+      </c>
+      <c r="C240" s="7">
+        <v>130</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8">
+      <c r="B241" t="s">
+        <v>253</v>
+      </c>
+      <c r="F241" t="s">
+        <v>258</v>
+      </c>
+      <c r="G241" t="s">
+        <v>162</v>
+      </c>
+      <c r="H241" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8">
+      <c r="B242" t="s">
+        <v>255</v>
+      </c>
+      <c r="F242" t="s">
+        <v>127</v>
+      </c>
+      <c r="G242" t="s">
+        <v>256</v>
+      </c>
+      <c r="H242" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8">
+      <c r="B243" t="s">
+        <v>262</v>
+      </c>
+      <c r="F243" t="s">
+        <v>125</v>
+      </c>
+      <c r="G243" t="s">
+        <v>259</v>
+      </c>
+      <c r="H243" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>263</v>
+      </c>
+      <c r="B245" t="s">
+        <v>95</v>
+      </c>
+      <c r="C245" s="7">
+        <v>130</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8">
+      <c r="B246" t="s">
+        <v>253</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" t="s">
+        <v>164</v>
+      </c>
+      <c r="H246" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8">
+      <c r="B247" t="s">
+        <v>255</v>
+      </c>
+      <c r="F247" t="s">
+        <v>158</v>
+      </c>
+      <c r="G247" t="s">
+        <v>149</v>
+      </c>
+      <c r="H247" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8">
+      <c r="B248" t="s">
+        <v>180</v>
+      </c>
+      <c r="F248" t="s">
+        <v>184</v>
+      </c>
+      <c r="G248" t="s">
+        <v>152</v>
+      </c>
+      <c r="H248" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8">
+      <c r="B249" t="s">
+        <v>265</v>
+      </c>
+      <c r="F249" t="s">
+        <v>7</v>
+      </c>
+      <c r="H249" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8">
+      <c r="B250" t="s">
+        <v>150</v>
+      </c>
+      <c r="F250" t="s">
+        <v>266</v>
+      </c>
+      <c r="G250" t="s">
+        <v>159</v>
+      </c>
+      <c r="H250" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="7">
+        <v>130</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8">
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+      <c r="F253" t="s">
+        <v>263</v>
+      </c>
+      <c r="G253" t="s">
+        <v>188</v>
+      </c>
+      <c r="H253" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8">
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+      <c r="F254" t="s">
+        <v>161</v>
+      </c>
+      <c r="G254" t="s">
+        <v>149</v>
+      </c>
+      <c r="H254" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8">
+      <c r="B255" t="s">
+        <v>180</v>
+      </c>
+      <c r="F255" t="s">
+        <v>186</v>
+      </c>
+      <c r="G255" t="s">
+        <v>159</v>
+      </c>
+      <c r="H255" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8">
+      <c r="B256" t="s">
+        <v>265</v>
+      </c>
+      <c r="F256" t="s">
+        <v>50</v>
+      </c>
+      <c r="H256" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8">
+      <c r="B257" t="s">
+        <v>150</v>
+      </c>
+      <c r="F257" t="s">
+        <v>266</v>
+      </c>
+      <c r="G257" t="s">
+        <v>162</v>
+      </c>
+      <c r="H257" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" t="s">
+        <v>95</v>
+      </c>
+      <c r="C259" s="7">
+        <v>130</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8">
+      <c r="B260" t="s">
+        <v>253</v>
+      </c>
+      <c r="F260" t="s">
+        <v>263</v>
+      </c>
+      <c r="G260" t="s">
+        <v>256</v>
+      </c>
+      <c r="H260" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8">
+      <c r="B261" t="s">
+        <v>269</v>
+      </c>
+      <c r="F261" t="s">
+        <v>11</v>
+      </c>
+      <c r="G261" t="s">
+        <v>254</v>
+      </c>
+      <c r="H261" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" t="s">
+        <v>251</v>
+      </c>
+      <c r="C262" s="7">
+        <v>150</v>
+      </c>
+      <c r="F262" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4515,18 +5358,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -4537,7 +5380,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B3" s="7">
         <v>20</v>
@@ -4548,7 +5391,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="B4" s="7">
         <v>30</v>
@@ -4559,7 +5402,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="B5" s="7">
         <v>40</v>
@@ -4570,7 +5413,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="B6" s="7">
         <v>50</v>
@@ -4592,7 +5435,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="B8" s="7">
         <v>70</v>
@@ -4603,7 +5446,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B9" s="7">
         <v>80</v>
@@ -4614,7 +5457,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="B10" s="7">
         <v>90</v>
@@ -4625,7 +5468,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="B11" s="7">
         <v>100</v>
@@ -4636,7 +5479,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="B12" s="7">
         <v>110</v>
@@ -4647,7 +5490,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B13" s="7">
         <v>120</v>
@@ -4658,7 +5501,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B14" s="7">
         <v>130</v>
@@ -4669,7 +5512,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="B15" s="7">
         <v>140</v>
@@ -4680,7 +5523,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B16" s="7">
         <v>150</v>
@@ -4691,7 +5534,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="B17" s="7">
         <v>160</v>
@@ -4712,7 +5555,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4723,7 +5566,9 @@
     <col min="4" max="4" width="12.8533333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5733333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14" style="1"/>
+    <col min="7" max="7" width="19.14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.2866666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4731,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -4748,7 +5593,7 @@
         <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
@@ -4756,13 +5601,13 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -4770,13 +5615,13 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
@@ -4784,13 +5629,13 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C5" s="5">
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -4798,13 +5643,13 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="C6" s="5">
         <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
@@ -4812,13 +5657,13 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C7" s="5">
         <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -4826,13 +5671,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="C8" s="5">
         <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -4840,13 +5685,13 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="C9" s="5">
         <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -4854,13 +5699,13 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="C10" s="5">
         <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -4868,13 +5713,13 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="C11" s="5">
         <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -4882,13 +5727,13 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="C12" s="5">
         <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -4896,13 +5741,13 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C13" s="5">
         <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -4910,13 +5755,13 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="C14" s="5">
         <v>120</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -4924,13 +5769,13 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="C15" s="5">
         <v>140</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>45</v>
@@ -4938,13 +5783,13 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C16" s="5">
         <v>150</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>40</v>
@@ -4952,13 +5797,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C17" s="5">
         <v>160</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>40</v>
@@ -4969,24 +5814,24 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="C20" s="3">
         <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -4994,13 +5839,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -5008,13 +5853,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="2" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="C22" s="3">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -5022,13 +5867,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="2" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C23" s="3">
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -5036,13 +5881,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="C24" s="3">
         <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>25</v>
@@ -5050,13 +5895,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C25" s="3">
         <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>14</v>
@@ -5064,13 +5909,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="C26" s="3">
         <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
@@ -5078,13 +5923,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="2" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="C27" s="3">
         <v>70</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
@@ -5092,13 +5937,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="C28" s="3">
         <v>80</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
@@ -5106,13 +5951,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="2" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="C29" s="3">
         <v>90</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -5120,13 +5965,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="2" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="C30" s="3">
         <v>100</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -5134,13 +5979,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="2" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C31" s="3">
         <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>40</v>
@@ -5148,13 +5993,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="C32" s="3">
         <v>120</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -5162,13 +6007,13 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="2" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="C33" s="3">
         <v>140</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>45</v>
@@ -5176,13 +6021,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="2" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C34" s="3">
         <v>150</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>40</v>
@@ -5190,13 +6035,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C35" s="3">
         <v>160</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>40</v>
@@ -5204,36 +6049,36 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3">
         <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
@@ -5241,13 +6086,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3">
         <v>30</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
@@ -5255,13 +6100,13 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3">
         <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>25</v>
@@ -5269,13 +6114,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3">
         <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
@@ -5283,13 +6128,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3">
         <v>60</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -5297,13 +6142,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3">
         <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -5311,13 +6156,13 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3">
         <v>80</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -5325,13 +6170,13 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3">
         <v>90</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
@@ -5339,13 +6184,13 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3">
         <v>100</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>17</v>
@@ -5353,13 +6198,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="3">
         <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>40</v>
@@ -5367,13 +6212,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3">
         <v>120</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>20</v>
@@ -5381,13 +6226,13 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="3">
         <v>130</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>14</v>
@@ -5395,13 +6240,13 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3">
         <v>140</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>45</v>
@@ -5409,13 +6254,13 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3">
         <v>150</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>40</v>
@@ -5423,13 +6268,13 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3">
         <v>160</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>40</v>
